--- a/DesignData/Excel_Masters/StageWaveDetail_Master.xlsx
+++ b/DesignData/Excel_Masters/StageWaveDetail_Master.xlsx
@@ -965,7 +965,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1002,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="입력 오류" error="음수(-)는 입력할 수 없습니다. 0 이상의 숫자를 입력해주세요." sqref="D1:D1048576 G1:G1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="입력 오류" error="음수(-)와 0은 입력할 수 없습니다. 0 보다 큰 숫자를 입력해주세요." sqref="F1:F1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="입력 오류" error="음수(-)와 0은 입력할 수 없습니다. 0 보다 큰 숫자를 입력해주세요." sqref="F1:F1048576 C1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
